--- a/asset/MEAM_dataset_20250201.xlsx
+++ b/asset/MEAM_dataset_20250201.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lakshaygoel/Documents/Summer2024/Maya_collaboration/MemoryMeetsComputation/asset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24FD13C-3073-F246-B34D-21889339D190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C13F2BC-3131-A543-97B9-4780813A6E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{2BB3CA37-ED63-4327-966D-74B38959B38D}"/>
   </bookViews>
@@ -3146,7 +3146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA8E5E42-F1A4-4070-9329-EC5E65450FAF}">
   <dimension ref="A1:M827"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A819" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A454" workbookViewId="0">
       <selection activeCell="A827" sqref="A827:XFD827"/>
     </sheetView>
   </sheetViews>
